--- a/uploads/cour1.xlsx
+++ b/uploads/cour1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>SrNo</t>
   </si>
@@ -147,13 +147,13 @@
         <u val="single"/>
         <sz val="12"/>
         <color indexed="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Helvetica"/>
       </rPr>
-      <t>samridh@gmail.com</t>
+      <t>prabhgold2000@gmail.com</t>
     </r>
   </si>
   <si>
-    <t>8 april, 2023</t>
+    <t>5 april, 2023</t>
   </si>
   <si>
     <t>7</t>
@@ -209,6 +209,15 @@
   <si>
     <t>44</t>
   </si>
+  <si>
+    <t>11 april, 2023</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +246,7 @@
       <u val="single"/>
       <sz val="12"/>
       <color indexed="11"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
@@ -293,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -371,9 +380,7 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -413,12 +420,8 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -443,9 +446,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -489,43 +490,6 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -539,7 +503,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -621,16 +585,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2301,49 +2259,133 @@
       </c>
     </row>
     <row r="5" ht="15.4" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5">
+        <v>86.66666667</v>
+      </c>
+      <c r="I5" s="5">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5">
+        <v>74</v>
+      </c>
+      <c r="M5" s="5">
+        <v>90</v>
+      </c>
+      <c r="N5" s="5">
+        <v>82.22222222000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>24.66666667</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q5" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S5" s="5">
+        <v>70</v>
+      </c>
+      <c r="T5" s="5">
+        <v>6</v>
+      </c>
+      <c r="U5" s="5">
+        <v>4</v>
+      </c>
+      <c r="V5" s="5">
+        <v>18</v>
+      </c>
+      <c r="W5" s="5">
+        <v>2</v>
+      </c>
+      <c r="X5" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>30</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>30</v>
+      </c>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="4"/>
+      <c r="AO5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ5" t="s" s="4">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" ht="15.4" customHeight="1">
       <c r="A6" s="7"/>
@@ -10623,7 +10665,7 @@
       <c r="AN189" s="7"/>
       <c r="AO189" s="7"/>
       <c r="AP189" s="2"/>
-      <c r="AQ189" s="27"/>
+      <c r="AQ189" s="12"/>
     </row>
     <row r="190" ht="14.65" customHeight="1">
       <c r="A190" s="10"/>
@@ -10668,7 +10710,7 @@
       <c r="AN190" s="7"/>
       <c r="AO190" s="7"/>
       <c r="AP190" s="2"/>
-      <c r="AQ190" s="28"/>
+      <c r="AQ190" s="27"/>
     </row>
     <row r="191" ht="14.65" customHeight="1">
       <c r="A191" s="10"/>
@@ -10713,7 +10755,7 @@
       <c r="AN191" s="7"/>
       <c r="AO191" s="7"/>
       <c r="AP191" s="2"/>
-      <c r="AQ191" s="29"/>
+      <c r="AQ191" s="17"/>
     </row>
     <row r="192" ht="14.65" customHeight="1">
       <c r="A192" s="10"/>
@@ -12067,7 +12109,7 @@
     </row>
     <row r="222" ht="14.65" customHeight="1">
       <c r="A222" s="7"/>
-      <c r="B222" s="30"/>
+      <c r="B222" s="28"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -13777,9 +13819,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="samridh@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display="samridh@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display="samridh@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="prabhgold2000@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display="prabhgold2000@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display="prabhgold2000@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" location="" tooltip="" display="prabhgold2000@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/uploads/cour1.xlsx
+++ b/uploads/cour1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>SrNo</t>
   </si>
@@ -142,6 +142,9 @@
     <t>loistudends</t>
   </si>
   <si>
+    <t>Testattempted</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -180,6 +183,9 @@
     <t>yes</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>9 may, 2023</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
   </si>
   <si>
     <t>44</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>11 april, 2023</t>
@@ -1707,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ259"/>
+  <dimension ref="A1:AR259"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1728,8 +1737,8 @@
     <col min="16" max="40" width="9" style="1" customWidth="1"/>
     <col min="41" max="41" width="7.35156" style="1" customWidth="1"/>
     <col min="42" max="42" width="8.85156" style="1" customWidth="1"/>
-    <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="43" max="44" width="9" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.4" customHeight="1">
@@ -1862,13 +1871,16 @@
       <c r="AQ1" t="s" s="4">
         <v>42</v>
       </c>
+      <c r="AR1" t="s" s="4">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" ht="15.4" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5">
         <v>25</v>
@@ -1916,13 +1928,13 @@
         <v>18.6666666666667</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S2" s="5">
         <v>72</v>
@@ -1961,19 +1973,19 @@
         <v>3</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ2" s="5">
         <v>90</v>
@@ -1988,16 +2000,19 @@
         <v>30</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AO2" s="5">
         <v>32</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AR2" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.4" customHeight="1">
@@ -2005,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6">
         <v>28</v>
@@ -2047,13 +2062,13 @@
         <v>27.33333333</v>
       </c>
       <c r="P3" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S3" s="5">
         <v>80</v>
@@ -2092,19 +2107,19 @@
         <v>4</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ3" s="5">
         <v>90</v>
@@ -2123,18 +2138,19 @@
         <v>6</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ3" t="s" s="4">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AR3" s="4"/>
     </row>
     <row r="4" ht="15.4" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>22</v>
@@ -2176,13 +2192,13 @@
         <v>22.66666667</v>
       </c>
       <c r="P4" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S4" s="5">
         <v>65</v>
@@ -2221,19 +2237,19 @@
         <v>5</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ4" s="5">
         <v>90</v>
@@ -2252,10 +2268,13 @@
         <v>4</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AR4" t="s" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="15.4" customHeight="1">
@@ -2263,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>18</v>
@@ -2305,13 +2324,13 @@
         <v>24.66666667</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S5" s="5">
         <v>70</v>
@@ -2350,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ5" s="5">
         <v>90</v>
@@ -2384,8 +2403,9 @@
         <v>5</v>
       </c>
       <c r="AQ5" t="s" s="4">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AR5" s="4"/>
     </row>
     <row r="6" ht="15.4" customHeight="1">
       <c r="A6" s="7"/>
@@ -2431,6 +2451,7 @@
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
     </row>
     <row r="7" ht="15.4" customHeight="1">
       <c r="A7" s="7"/>
@@ -2476,6 +2497,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
     </row>
     <row r="8" ht="15.4" customHeight="1">
       <c r="A8" s="7"/>
@@ -2521,6 +2543,7 @@
       <c r="AO8" s="7"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
     </row>
     <row r="9" ht="15.4" customHeight="1">
       <c r="A9" s="7"/>
@@ -2566,6 +2589,7 @@
       <c r="AO9" s="7"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
     </row>
     <row r="10" ht="15.4" customHeight="1">
       <c r="A10" s="7"/>
@@ -2611,6 +2635,7 @@
       <c r="AO10" s="7"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
     </row>
     <row r="11" ht="15.4" customHeight="1">
       <c r="A11" s="7"/>
@@ -2656,6 +2681,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
     </row>
     <row r="12" ht="15.4" customHeight="1">
       <c r="A12" s="7"/>
@@ -2701,6 +2727,7 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
     </row>
     <row r="13" ht="15.4" customHeight="1">
       <c r="A13" s="7"/>
@@ -2746,6 +2773,7 @@
       <c r="AO13" s="7"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
     </row>
     <row r="14" ht="15.4" customHeight="1">
       <c r="A14" s="7"/>
@@ -2791,6 +2819,7 @@
       <c r="AO14" s="7"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
     </row>
     <row r="15" ht="15.4" customHeight="1">
       <c r="A15" s="7"/>
@@ -2836,6 +2865,7 @@
       <c r="AO15" s="7"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
     </row>
     <row r="16" ht="15.4" customHeight="1">
       <c r="A16" s="7"/>
@@ -2881,6 +2911,7 @@
       <c r="AO16" s="7"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
     </row>
     <row r="17" ht="15.4" customHeight="1">
       <c r="A17" s="7"/>
@@ -2926,6 +2957,7 @@
       <c r="AO17" s="7"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
     </row>
     <row r="18" ht="15.4" customHeight="1">
       <c r="A18" s="7"/>
@@ -2971,6 +3003,7 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
     </row>
     <row r="19" ht="15.4" customHeight="1">
       <c r="A19" s="7"/>
@@ -3016,6 +3049,7 @@
       <c r="AO19" s="7"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
     </row>
     <row r="20" ht="15.4" customHeight="1">
       <c r="A20" s="7"/>
@@ -3061,6 +3095,7 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
     </row>
     <row r="21" ht="15.4" customHeight="1">
       <c r="A21" s="7"/>
@@ -3106,6 +3141,7 @@
       <c r="AO21" s="7"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
     </row>
     <row r="22" ht="15.4" customHeight="1">
       <c r="A22" s="10"/>
@@ -3151,6 +3187,7 @@
       <c r="AO22" s="7"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
     </row>
     <row r="23" ht="15.4" customHeight="1">
       <c r="A23" s="10"/>
@@ -3196,6 +3233,7 @@
       <c r="AO23" s="7"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
     </row>
     <row r="24" ht="15.4" customHeight="1">
       <c r="A24" s="10"/>
@@ -3241,6 +3279,7 @@
       <c r="AO24" s="7"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
     </row>
     <row r="25" ht="15.4" customHeight="1">
       <c r="A25" s="10"/>
@@ -3286,6 +3325,7 @@
       <c r="AO25" s="7"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
     </row>
     <row r="26" ht="15.4" customHeight="1">
       <c r="A26" s="10"/>
@@ -3331,6 +3371,7 @@
       <c r="AO26" s="7"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
     </row>
     <row r="27" ht="15.4" customHeight="1">
       <c r="A27" s="10"/>
@@ -3376,6 +3417,7 @@
       <c r="AO27" s="7"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
     </row>
     <row r="28" ht="15.4" customHeight="1">
       <c r="A28" s="10"/>
@@ -3421,6 +3463,7 @@
       <c r="AO28" s="7"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
     </row>
     <row r="29" ht="15.4" customHeight="1">
       <c r="A29" s="10"/>
@@ -3466,6 +3509,7 @@
       <c r="AO29" s="7"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
     </row>
     <row r="30" ht="15.4" customHeight="1">
       <c r="A30" s="10"/>
@@ -3511,6 +3555,7 @@
       <c r="AO30" s="7"/>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
     </row>
     <row r="31" ht="15.4" customHeight="1">
       <c r="A31" s="10"/>
@@ -3556,6 +3601,7 @@
       <c r="AO31" s="7"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
     </row>
     <row r="32" ht="15.4" customHeight="1">
       <c r="A32" s="10"/>
@@ -3601,6 +3647,7 @@
       <c r="AO32" s="7"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
     </row>
     <row r="33" ht="15.4" customHeight="1">
       <c r="A33" s="10"/>
@@ -3646,6 +3693,7 @@
       <c r="AO33" s="7"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
     </row>
     <row r="34" ht="15.4" customHeight="1">
       <c r="A34" s="10"/>
@@ -3691,6 +3739,7 @@
       <c r="AO34" s="7"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
     </row>
     <row r="35" ht="15.4" customHeight="1">
       <c r="A35" s="10"/>
@@ -3736,6 +3785,7 @@
       <c r="AO35" s="7"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
     </row>
     <row r="36" ht="15.4" customHeight="1">
       <c r="A36" s="10"/>
@@ -3781,6 +3831,7 @@
       <c r="AO36" s="7"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
     </row>
     <row r="37" ht="15.4" customHeight="1">
       <c r="A37" s="10"/>
@@ -3826,6 +3877,7 @@
       <c r="AO37" s="7"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
     </row>
     <row r="38" ht="16.75" customHeight="1">
       <c r="A38" s="10"/>
@@ -3871,6 +3923,7 @@
       <c r="AO38" s="7"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
     </row>
     <row r="39" ht="15.4" customHeight="1">
       <c r="A39" s="10"/>
@@ -3916,6 +3969,7 @@
       <c r="AO39" s="7"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
     </row>
     <row r="40" ht="15.4" customHeight="1">
       <c r="A40" s="10"/>
@@ -3961,6 +4015,7 @@
       <c r="AO40" s="7"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
     </row>
     <row r="41" ht="18.65" customHeight="1">
       <c r="A41" s="10"/>
@@ -4006,6 +4061,7 @@
       <c r="AO41" s="7"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
     </row>
     <row r="42" ht="14.65" customHeight="1">
       <c r="A42" s="10"/>
@@ -4051,6 +4107,7 @@
       <c r="AO42" s="7"/>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
     </row>
     <row r="43" ht="14.65" customHeight="1">
       <c r="A43" s="10"/>
@@ -4096,6 +4153,7 @@
       <c r="AO43" s="7"/>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
     </row>
     <row r="44" ht="14.65" customHeight="1">
       <c r="A44" s="10"/>
@@ -4141,6 +4199,7 @@
       <c r="AO44" s="7"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
     </row>
     <row r="45" ht="14.65" customHeight="1">
       <c r="A45" s="10"/>
@@ -4186,6 +4245,7 @@
       <c r="AO45" s="7"/>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
     </row>
     <row r="46" ht="14.65" customHeight="1">
       <c r="A46" s="10"/>
@@ -4231,6 +4291,7 @@
       <c r="AO46" s="7"/>
       <c r="AP46" s="2"/>
       <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
     </row>
     <row r="47" ht="14.65" customHeight="1">
       <c r="A47" s="10"/>
@@ -4276,6 +4337,7 @@
       <c r="AO47" s="7"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
     </row>
     <row r="48" ht="14.65" customHeight="1">
       <c r="A48" s="10"/>
@@ -4321,6 +4383,7 @@
       <c r="AO48" s="7"/>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
     </row>
     <row r="49" ht="14.65" customHeight="1">
       <c r="A49" s="10"/>
@@ -4366,6 +4429,7 @@
       <c r="AO49" s="7"/>
       <c r="AP49" s="2"/>
       <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
     </row>
     <row r="50" ht="14.65" customHeight="1">
       <c r="A50" s="10"/>
@@ -4411,6 +4475,7 @@
       <c r="AO50" s="7"/>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
     </row>
     <row r="51" ht="14.65" customHeight="1">
       <c r="A51" s="10"/>
@@ -4456,6 +4521,7 @@
       <c r="AO51" s="7"/>
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
     </row>
     <row r="52" ht="14.65" customHeight="1">
       <c r="A52" s="10"/>
@@ -4501,6 +4567,7 @@
       <c r="AO52" s="7"/>
       <c r="AP52" s="2"/>
       <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
     </row>
     <row r="53" ht="14.65" customHeight="1">
       <c r="A53" s="10"/>
@@ -4546,6 +4613,7 @@
       <c r="AO53" s="7"/>
       <c r="AP53" s="2"/>
       <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
     </row>
     <row r="54" ht="14.65" customHeight="1">
       <c r="A54" s="10"/>
@@ -4591,6 +4659,7 @@
       <c r="AO54" s="7"/>
       <c r="AP54" s="2"/>
       <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
     </row>
     <row r="55" ht="14.65" customHeight="1">
       <c r="A55" s="10"/>
@@ -4636,6 +4705,7 @@
       <c r="AO55" s="7"/>
       <c r="AP55" s="2"/>
       <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
     </row>
     <row r="56" ht="14.65" customHeight="1">
       <c r="A56" s="10"/>
@@ -4681,6 +4751,7 @@
       <c r="AO56" s="7"/>
       <c r="AP56" s="2"/>
       <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
     </row>
     <row r="57" ht="14.65" customHeight="1">
       <c r="A57" s="10"/>
@@ -4726,6 +4797,7 @@
       <c r="AO57" s="7"/>
       <c r="AP57" s="2"/>
       <c r="AQ57" s="2"/>
+      <c r="AR57" s="2"/>
     </row>
     <row r="58" ht="14.65" customHeight="1">
       <c r="A58" s="10"/>
@@ -4771,6 +4843,7 @@
       <c r="AO58" s="7"/>
       <c r="AP58" s="2"/>
       <c r="AQ58" s="22"/>
+      <c r="AR58" s="22"/>
     </row>
     <row r="59" ht="14.65" customHeight="1">
       <c r="A59" s="10"/>
@@ -4816,6 +4889,7 @@
       <c r="AO59" s="7"/>
       <c r="AP59" s="2"/>
       <c r="AQ59" s="22"/>
+      <c r="AR59" s="22"/>
     </row>
     <row r="60" ht="14.65" customHeight="1">
       <c r="A60" s="10"/>
@@ -4861,6 +4935,7 @@
       <c r="AO60" s="7"/>
       <c r="AP60" s="2"/>
       <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
     </row>
     <row r="61" ht="14.65" customHeight="1">
       <c r="A61" s="10"/>
@@ -4906,6 +4981,7 @@
       <c r="AO61" s="7"/>
       <c r="AP61" s="2"/>
       <c r="AQ61" s="2"/>
+      <c r="AR61" s="2"/>
     </row>
     <row r="62" ht="14.65" customHeight="1">
       <c r="A62" s="10"/>
@@ -4951,6 +5027,7 @@
       <c r="AO62" s="7"/>
       <c r="AP62" s="2"/>
       <c r="AQ62" s="2"/>
+      <c r="AR62" s="2"/>
     </row>
     <row r="63" ht="14.65" customHeight="1">
       <c r="A63" s="10"/>
@@ -4996,6 +5073,7 @@
       <c r="AO63" s="7"/>
       <c r="AP63" s="2"/>
       <c r="AQ63" s="2"/>
+      <c r="AR63" s="2"/>
     </row>
     <row r="64" ht="14.65" customHeight="1">
       <c r="A64" s="10"/>
@@ -5041,6 +5119,7 @@
       <c r="AO64" s="7"/>
       <c r="AP64" s="2"/>
       <c r="AQ64" s="2"/>
+      <c r="AR64" s="2"/>
     </row>
     <row r="65" ht="14.65" customHeight="1">
       <c r="A65" s="10"/>
@@ -5086,6 +5165,7 @@
       <c r="AO65" s="7"/>
       <c r="AP65" s="2"/>
       <c r="AQ65" s="2"/>
+      <c r="AR65" s="2"/>
     </row>
     <row r="66" ht="14.65" customHeight="1">
       <c r="A66" s="10"/>
@@ -5131,6 +5211,7 @@
       <c r="AO66" s="7"/>
       <c r="AP66" s="2"/>
       <c r="AQ66" s="2"/>
+      <c r="AR66" s="2"/>
     </row>
     <row r="67" ht="14.65" customHeight="1">
       <c r="A67" s="10"/>
@@ -5176,6 +5257,7 @@
       <c r="AO67" s="7"/>
       <c r="AP67" s="2"/>
       <c r="AQ67" s="2"/>
+      <c r="AR67" s="2"/>
     </row>
     <row r="68" ht="14.65" customHeight="1">
       <c r="A68" s="10"/>
@@ -5221,6 +5303,7 @@
       <c r="AO68" s="7"/>
       <c r="AP68" s="2"/>
       <c r="AQ68" s="2"/>
+      <c r="AR68" s="2"/>
     </row>
     <row r="69" ht="14.65" customHeight="1">
       <c r="A69" s="10"/>
@@ -5266,6 +5349,7 @@
       <c r="AO69" s="7"/>
       <c r="AP69" s="2"/>
       <c r="AQ69" s="2"/>
+      <c r="AR69" s="2"/>
     </row>
     <row r="70" ht="14.65" customHeight="1">
       <c r="A70" s="10"/>
@@ -5311,6 +5395,7 @@
       <c r="AO70" s="7"/>
       <c r="AP70" s="2"/>
       <c r="AQ70" s="2"/>
+      <c r="AR70" s="2"/>
     </row>
     <row r="71" ht="14.65" customHeight="1">
       <c r="A71" s="10"/>
@@ -5356,6 +5441,7 @@
       <c r="AO71" s="7"/>
       <c r="AP71" s="2"/>
       <c r="AQ71" s="2"/>
+      <c r="AR71" s="2"/>
     </row>
     <row r="72" ht="14.65" customHeight="1">
       <c r="A72" s="10"/>
@@ -5401,6 +5487,7 @@
       <c r="AO72" s="7"/>
       <c r="AP72" s="2"/>
       <c r="AQ72" s="2"/>
+      <c r="AR72" s="2"/>
     </row>
     <row r="73" ht="14.65" customHeight="1">
       <c r="A73" s="10"/>
@@ -5446,6 +5533,7 @@
       <c r="AO73" s="7"/>
       <c r="AP73" s="2"/>
       <c r="AQ73" s="2"/>
+      <c r="AR73" s="2"/>
     </row>
     <row r="74" ht="14.65" customHeight="1">
       <c r="A74" s="10"/>
@@ -5491,6 +5579,7 @@
       <c r="AO74" s="7"/>
       <c r="AP74" s="2"/>
       <c r="AQ74" s="2"/>
+      <c r="AR74" s="2"/>
     </row>
     <row r="75" ht="14.65" customHeight="1">
       <c r="A75" s="10"/>
@@ -5536,6 +5625,7 @@
       <c r="AO75" s="7"/>
       <c r="AP75" s="2"/>
       <c r="AQ75" s="2"/>
+      <c r="AR75" s="2"/>
     </row>
     <row r="76" ht="14.65" customHeight="1">
       <c r="A76" s="10"/>
@@ -5581,6 +5671,7 @@
       <c r="AO76" s="7"/>
       <c r="AP76" s="2"/>
       <c r="AQ76" s="2"/>
+      <c r="AR76" s="2"/>
     </row>
     <row r="77" ht="14.65" customHeight="1">
       <c r="A77" s="10"/>
@@ -5626,6 +5717,7 @@
       <c r="AO77" s="7"/>
       <c r="AP77" s="2"/>
       <c r="AQ77" s="2"/>
+      <c r="AR77" s="2"/>
     </row>
     <row r="78" ht="14.65" customHeight="1">
       <c r="A78" s="10"/>
@@ -5671,6 +5763,7 @@
       <c r="AO78" s="7"/>
       <c r="AP78" s="2"/>
       <c r="AQ78" s="2"/>
+      <c r="AR78" s="2"/>
     </row>
     <row r="79" ht="14.65" customHeight="1">
       <c r="A79" s="10"/>
@@ -5716,6 +5809,7 @@
       <c r="AO79" s="7"/>
       <c r="AP79" s="2"/>
       <c r="AQ79" s="2"/>
+      <c r="AR79" s="2"/>
     </row>
     <row r="80" ht="14.65" customHeight="1">
       <c r="A80" s="10"/>
@@ -5761,6 +5855,7 @@
       <c r="AO80" s="7"/>
       <c r="AP80" s="2"/>
       <c r="AQ80" s="2"/>
+      <c r="AR80" s="2"/>
     </row>
     <row r="81" ht="14.65" customHeight="1">
       <c r="A81" s="10"/>
@@ -5806,6 +5901,7 @@
       <c r="AO81" s="7"/>
       <c r="AP81" s="2"/>
       <c r="AQ81" s="2"/>
+      <c r="AR81" s="2"/>
     </row>
     <row r="82" ht="14.65" customHeight="1">
       <c r="A82" s="10"/>
@@ -5851,6 +5947,7 @@
       <c r="AO82" s="7"/>
       <c r="AP82" s="2"/>
       <c r="AQ82" s="2"/>
+      <c r="AR82" s="2"/>
     </row>
     <row r="83" ht="14.65" customHeight="1">
       <c r="A83" s="10"/>
@@ -5896,6 +5993,7 @@
       <c r="AO83" s="7"/>
       <c r="AP83" s="2"/>
       <c r="AQ83" s="2"/>
+      <c r="AR83" s="2"/>
     </row>
     <row r="84" ht="14.65" customHeight="1">
       <c r="A84" s="10"/>
@@ -5941,6 +6039,7 @@
       <c r="AO84" s="7"/>
       <c r="AP84" s="2"/>
       <c r="AQ84" s="2"/>
+      <c r="AR84" s="2"/>
     </row>
     <row r="85" ht="14.65" customHeight="1">
       <c r="A85" s="10"/>
@@ -5986,6 +6085,7 @@
       <c r="AO85" s="7"/>
       <c r="AP85" s="2"/>
       <c r="AQ85" s="2"/>
+      <c r="AR85" s="2"/>
     </row>
     <row r="86" ht="14.65" customHeight="1">
       <c r="A86" s="10"/>
@@ -6031,6 +6131,7 @@
       <c r="AO86" s="7"/>
       <c r="AP86" s="2"/>
       <c r="AQ86" s="2"/>
+      <c r="AR86" s="2"/>
     </row>
     <row r="87" ht="14.65" customHeight="1">
       <c r="A87" s="10"/>
@@ -6076,6 +6177,7 @@
       <c r="AO87" s="7"/>
       <c r="AP87" s="2"/>
       <c r="AQ87" s="2"/>
+      <c r="AR87" s="2"/>
     </row>
     <row r="88" ht="14.65" customHeight="1">
       <c r="A88" s="10"/>
@@ -6121,6 +6223,7 @@
       <c r="AO88" s="7"/>
       <c r="AP88" s="2"/>
       <c r="AQ88" s="2"/>
+      <c r="AR88" s="2"/>
     </row>
     <row r="89" ht="14.65" customHeight="1">
       <c r="A89" s="10"/>
@@ -6166,6 +6269,7 @@
       <c r="AO89" s="7"/>
       <c r="AP89" s="2"/>
       <c r="AQ89" s="2"/>
+      <c r="AR89" s="2"/>
     </row>
     <row r="90" ht="14.65" customHeight="1">
       <c r="A90" s="10"/>
@@ -6211,6 +6315,7 @@
       <c r="AO90" s="7"/>
       <c r="AP90" s="2"/>
       <c r="AQ90" s="2"/>
+      <c r="AR90" s="2"/>
     </row>
     <row r="91" ht="14.65" customHeight="1">
       <c r="A91" s="10"/>
@@ -6256,6 +6361,7 @@
       <c r="AO91" s="7"/>
       <c r="AP91" s="2"/>
       <c r="AQ91" s="2"/>
+      <c r="AR91" s="2"/>
     </row>
     <row r="92" ht="14.65" customHeight="1">
       <c r="A92" s="10"/>
@@ -6301,6 +6407,7 @@
       <c r="AO92" s="7"/>
       <c r="AP92" s="2"/>
       <c r="AQ92" s="2"/>
+      <c r="AR92" s="2"/>
     </row>
     <row r="93" ht="14.65" customHeight="1">
       <c r="A93" s="10"/>
@@ -6346,6 +6453,7 @@
       <c r="AO93" s="7"/>
       <c r="AP93" s="2"/>
       <c r="AQ93" s="2"/>
+      <c r="AR93" s="2"/>
     </row>
     <row r="94" ht="14.65" customHeight="1">
       <c r="A94" s="10"/>
@@ -6391,6 +6499,7 @@
       <c r="AO94" s="7"/>
       <c r="AP94" s="2"/>
       <c r="AQ94" s="2"/>
+      <c r="AR94" s="2"/>
     </row>
     <row r="95" ht="14.65" customHeight="1">
       <c r="A95" s="10"/>
@@ -6436,6 +6545,7 @@
       <c r="AO95" s="7"/>
       <c r="AP95" s="2"/>
       <c r="AQ95" s="2"/>
+      <c r="AR95" s="2"/>
     </row>
     <row r="96" ht="14.65" customHeight="1">
       <c r="A96" s="10"/>
@@ -6481,6 +6591,7 @@
       <c r="AO96" s="7"/>
       <c r="AP96" s="2"/>
       <c r="AQ96" s="2"/>
+      <c r="AR96" s="2"/>
     </row>
     <row r="97" ht="14.65" customHeight="1">
       <c r="A97" s="10"/>
@@ -6526,6 +6637,7 @@
       <c r="AO97" s="7"/>
       <c r="AP97" s="2"/>
       <c r="AQ97" s="2"/>
+      <c r="AR97" s="2"/>
     </row>
     <row r="98" ht="14.65" customHeight="1">
       <c r="A98" s="10"/>
@@ -6571,6 +6683,7 @@
       <c r="AO98" s="7"/>
       <c r="AP98" s="2"/>
       <c r="AQ98" s="22"/>
+      <c r="AR98" s="22"/>
     </row>
     <row r="99" ht="14.65" customHeight="1">
       <c r="A99" s="10"/>
@@ -6616,6 +6729,7 @@
       <c r="AO99" s="7"/>
       <c r="AP99" s="2"/>
       <c r="AQ99" s="22"/>
+      <c r="AR99" s="22"/>
     </row>
     <row r="100" ht="14.65" customHeight="1">
       <c r="A100" s="10"/>
@@ -6661,6 +6775,7 @@
       <c r="AO100" s="7"/>
       <c r="AP100" s="2"/>
       <c r="AQ100" s="22"/>
+      <c r="AR100" s="22"/>
     </row>
     <row r="101" ht="14.65" customHeight="1">
       <c r="A101" s="10"/>
@@ -6706,6 +6821,7 @@
       <c r="AO101" s="7"/>
       <c r="AP101" s="2"/>
       <c r="AQ101" s="22"/>
+      <c r="AR101" s="22"/>
     </row>
     <row r="102" ht="14.65" customHeight="1">
       <c r="A102" s="10"/>
@@ -6751,6 +6867,7 @@
       <c r="AO102" s="7"/>
       <c r="AP102" s="2"/>
       <c r="AQ102" s="22"/>
+      <c r="AR102" s="22"/>
     </row>
     <row r="103" ht="14.65" customHeight="1">
       <c r="A103" s="10"/>
@@ -6796,6 +6913,7 @@
       <c r="AO103" s="7"/>
       <c r="AP103" s="2"/>
       <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
     </row>
     <row r="104" ht="14.65" customHeight="1">
       <c r="A104" s="10"/>
@@ -6841,6 +6959,7 @@
       <c r="AO104" s="7"/>
       <c r="AP104" s="2"/>
       <c r="AQ104" s="22"/>
+      <c r="AR104" s="22"/>
     </row>
     <row r="105" ht="14.65" customHeight="1">
       <c r="A105" s="10"/>
@@ -6886,6 +7005,7 @@
       <c r="AO105" s="7"/>
       <c r="AP105" s="2"/>
       <c r="AQ105" s="22"/>
+      <c r="AR105" s="22"/>
     </row>
     <row r="106" ht="14.65" customHeight="1">
       <c r="A106" s="10"/>
@@ -6931,6 +7051,7 @@
       <c r="AO106" s="7"/>
       <c r="AP106" s="2"/>
       <c r="AQ106" s="22"/>
+      <c r="AR106" s="22"/>
     </row>
     <row r="107" ht="14.65" customHeight="1">
       <c r="A107" s="10"/>
@@ -6976,6 +7097,7 @@
       <c r="AO107" s="7"/>
       <c r="AP107" s="2"/>
       <c r="AQ107" s="22"/>
+      <c r="AR107" s="22"/>
     </row>
     <row r="108" ht="14.65" customHeight="1">
       <c r="A108" s="10"/>
@@ -7021,6 +7143,7 @@
       <c r="AO108" s="7"/>
       <c r="AP108" s="2"/>
       <c r="AQ108" s="22"/>
+      <c r="AR108" s="22"/>
     </row>
     <row r="109" ht="14.65" customHeight="1">
       <c r="A109" s="10"/>
@@ -7066,6 +7189,7 @@
       <c r="AO109" s="7"/>
       <c r="AP109" s="2"/>
       <c r="AQ109" s="22"/>
+      <c r="AR109" s="22"/>
     </row>
     <row r="110" ht="14.65" customHeight="1">
       <c r="A110" s="10"/>
@@ -7111,6 +7235,7 @@
       <c r="AO110" s="7"/>
       <c r="AP110" s="2"/>
       <c r="AQ110" s="22"/>
+      <c r="AR110" s="22"/>
     </row>
     <row r="111" ht="14.65" customHeight="1">
       <c r="A111" s="10"/>
@@ -7156,6 +7281,7 @@
       <c r="AO111" s="7"/>
       <c r="AP111" s="2"/>
       <c r="AQ111" s="22"/>
+      <c r="AR111" s="22"/>
     </row>
     <row r="112" ht="14.65" customHeight="1">
       <c r="A112" s="10"/>
@@ -7201,6 +7327,7 @@
       <c r="AO112" s="7"/>
       <c r="AP112" s="2"/>
       <c r="AQ112" s="22"/>
+      <c r="AR112" s="22"/>
     </row>
     <row r="113" ht="14.65" customHeight="1">
       <c r="A113" s="10"/>
@@ -7246,6 +7373,7 @@
       <c r="AO113" s="7"/>
       <c r="AP113" s="2"/>
       <c r="AQ113" s="22"/>
+      <c r="AR113" s="22"/>
     </row>
     <row r="114" ht="14.65" customHeight="1">
       <c r="A114" s="10"/>
@@ -7291,6 +7419,7 @@
       <c r="AO114" s="7"/>
       <c r="AP114" s="2"/>
       <c r="AQ114" s="22"/>
+      <c r="AR114" s="22"/>
     </row>
     <row r="115" ht="14.65" customHeight="1">
       <c r="A115" s="10"/>
@@ -7336,6 +7465,7 @@
       <c r="AO115" s="7"/>
       <c r="AP115" s="2"/>
       <c r="AQ115" s="22"/>
+      <c r="AR115" s="22"/>
     </row>
     <row r="116" ht="14.65" customHeight="1">
       <c r="A116" s="10"/>
@@ -7381,6 +7511,7 @@
       <c r="AO116" s="7"/>
       <c r="AP116" s="2"/>
       <c r="AQ116" s="22"/>
+      <c r="AR116" s="22"/>
     </row>
     <row r="117" ht="14.65" customHeight="1">
       <c r="A117" s="10"/>
@@ -7426,6 +7557,7 @@
       <c r="AO117" s="7"/>
       <c r="AP117" s="2"/>
       <c r="AQ117" s="22"/>
+      <c r="AR117" s="22"/>
     </row>
     <row r="118" ht="14.65" customHeight="1">
       <c r="A118" s="10"/>
@@ -7471,6 +7603,7 @@
       <c r="AO118" s="7"/>
       <c r="AP118" s="2"/>
       <c r="AQ118" s="22"/>
+      <c r="AR118" s="22"/>
     </row>
     <row r="119" ht="14.65" customHeight="1">
       <c r="A119" s="10"/>
@@ -7516,6 +7649,7 @@
       <c r="AO119" s="7"/>
       <c r="AP119" s="2"/>
       <c r="AQ119" s="22"/>
+      <c r="AR119" s="22"/>
     </row>
     <row r="120" ht="14.65" customHeight="1">
       <c r="A120" s="10"/>
@@ -7561,6 +7695,7 @@
       <c r="AO120" s="7"/>
       <c r="AP120" s="2"/>
       <c r="AQ120" s="22"/>
+      <c r="AR120" s="22"/>
     </row>
     <row r="121" ht="14.65" customHeight="1">
       <c r="A121" s="10"/>
@@ -7606,6 +7741,7 @@
       <c r="AO121" s="7"/>
       <c r="AP121" s="2"/>
       <c r="AQ121" s="22"/>
+      <c r="AR121" s="22"/>
     </row>
     <row r="122" ht="14.65" customHeight="1">
       <c r="A122" s="10"/>
@@ -7651,6 +7787,7 @@
       <c r="AO122" s="7"/>
       <c r="AP122" s="2"/>
       <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
     </row>
     <row r="123" ht="14.65" customHeight="1">
       <c r="A123" s="10"/>
@@ -7696,6 +7833,7 @@
       <c r="AO123" s="7"/>
       <c r="AP123" s="2"/>
       <c r="AQ123" s="22"/>
+      <c r="AR123" s="22"/>
     </row>
     <row r="124" ht="14.65" customHeight="1">
       <c r="A124" s="10"/>
@@ -7741,6 +7879,7 @@
       <c r="AO124" s="7"/>
       <c r="AP124" s="2"/>
       <c r="AQ124" s="22"/>
+      <c r="AR124" s="22"/>
     </row>
     <row r="125" ht="14.65" customHeight="1">
       <c r="A125" s="10"/>
@@ -7786,6 +7925,7 @@
       <c r="AO125" s="7"/>
       <c r="AP125" s="2"/>
       <c r="AQ125" s="22"/>
+      <c r="AR125" s="22"/>
     </row>
     <row r="126" ht="14.65" customHeight="1">
       <c r="A126" s="10"/>
@@ -7831,6 +7971,7 @@
       <c r="AO126" s="7"/>
       <c r="AP126" s="2"/>
       <c r="AQ126" s="22"/>
+      <c r="AR126" s="22"/>
     </row>
     <row r="127" ht="14.65" customHeight="1">
       <c r="A127" s="10"/>
@@ -7876,6 +8017,7 @@
       <c r="AO127" s="7"/>
       <c r="AP127" s="2"/>
       <c r="AQ127" s="22"/>
+      <c r="AR127" s="22"/>
     </row>
     <row r="128" ht="14.65" customHeight="1">
       <c r="A128" s="10"/>
@@ -7921,6 +8063,7 @@
       <c r="AO128" s="7"/>
       <c r="AP128" s="2"/>
       <c r="AQ128" s="22"/>
+      <c r="AR128" s="22"/>
     </row>
     <row r="129" ht="14.65" customHeight="1">
       <c r="A129" s="10"/>
@@ -7966,6 +8109,7 @@
       <c r="AO129" s="7"/>
       <c r="AP129" s="2"/>
       <c r="AQ129" s="22"/>
+      <c r="AR129" s="22"/>
     </row>
     <row r="130" ht="14.65" customHeight="1">
       <c r="A130" s="10"/>
@@ -8011,6 +8155,7 @@
       <c r="AO130" s="7"/>
       <c r="AP130" s="2"/>
       <c r="AQ130" s="22"/>
+      <c r="AR130" s="22"/>
     </row>
     <row r="131" ht="14.65" customHeight="1">
       <c r="A131" s="10"/>
@@ -8056,6 +8201,7 @@
       <c r="AO131" s="7"/>
       <c r="AP131" s="2"/>
       <c r="AQ131" s="22"/>
+      <c r="AR131" s="22"/>
     </row>
     <row r="132" ht="14.65" customHeight="1">
       <c r="A132" s="10"/>
@@ -8101,6 +8247,7 @@
       <c r="AO132" s="7"/>
       <c r="AP132" s="2"/>
       <c r="AQ132" s="2"/>
+      <c r="AR132" s="2"/>
     </row>
     <row r="133" ht="14.65" customHeight="1">
       <c r="A133" s="10"/>
@@ -8146,6 +8293,7 @@
       <c r="AO133" s="7"/>
       <c r="AP133" s="2"/>
       <c r="AQ133" s="2"/>
+      <c r="AR133" s="2"/>
     </row>
     <row r="134" ht="14.65" customHeight="1">
       <c r="A134" s="10"/>
@@ -8191,6 +8339,7 @@
       <c r="AO134" s="7"/>
       <c r="AP134" s="2"/>
       <c r="AQ134" s="2"/>
+      <c r="AR134" s="2"/>
     </row>
     <row r="135" ht="14.65" customHeight="1">
       <c r="A135" s="10"/>
@@ -8236,6 +8385,7 @@
       <c r="AO135" s="7"/>
       <c r="AP135" s="2"/>
       <c r="AQ135" s="2"/>
+      <c r="AR135" s="2"/>
     </row>
     <row r="136" ht="14.65" customHeight="1">
       <c r="A136" s="10"/>
@@ -8281,6 +8431,7 @@
       <c r="AO136" s="7"/>
       <c r="AP136" s="2"/>
       <c r="AQ136" s="2"/>
+      <c r="AR136" s="2"/>
     </row>
     <row r="137" ht="14.65" customHeight="1">
       <c r="A137" s="10"/>
@@ -8326,6 +8477,7 @@
       <c r="AO137" s="7"/>
       <c r="AP137" s="2"/>
       <c r="AQ137" s="2"/>
+      <c r="AR137" s="2"/>
     </row>
     <row r="138" ht="14.65" customHeight="1">
       <c r="A138" s="10"/>
@@ -8371,6 +8523,7 @@
       <c r="AO138" s="7"/>
       <c r="AP138" s="2"/>
       <c r="AQ138" s="2"/>
+      <c r="AR138" s="2"/>
     </row>
     <row r="139" ht="14.65" customHeight="1">
       <c r="A139" s="10"/>
@@ -8416,6 +8569,7 @@
       <c r="AO139" s="7"/>
       <c r="AP139" s="2"/>
       <c r="AQ139" s="2"/>
+      <c r="AR139" s="2"/>
     </row>
     <row r="140" ht="14.65" customHeight="1">
       <c r="A140" s="10"/>
@@ -8461,6 +8615,7 @@
       <c r="AO140" s="7"/>
       <c r="AP140" s="2"/>
       <c r="AQ140" s="2"/>
+      <c r="AR140" s="2"/>
     </row>
     <row r="141" ht="14.65" customHeight="1">
       <c r="A141" s="10"/>
@@ -8506,6 +8661,7 @@
       <c r="AO141" s="7"/>
       <c r="AP141" s="2"/>
       <c r="AQ141" s="2"/>
+      <c r="AR141" s="2"/>
     </row>
     <row r="142" ht="14.65" customHeight="1">
       <c r="A142" s="10"/>
@@ -8551,6 +8707,7 @@
       <c r="AO142" s="7"/>
       <c r="AP142" s="2"/>
       <c r="AQ142" s="2"/>
+      <c r="AR142" s="2"/>
     </row>
     <row r="143" ht="14.65" customHeight="1">
       <c r="A143" s="10"/>
@@ -8596,6 +8753,7 @@
       <c r="AO143" s="7"/>
       <c r="AP143" s="2"/>
       <c r="AQ143" s="2"/>
+      <c r="AR143" s="2"/>
     </row>
     <row r="144" ht="14.65" customHeight="1">
       <c r="A144" s="10"/>
@@ -8641,6 +8799,7 @@
       <c r="AO144" s="7"/>
       <c r="AP144" s="2"/>
       <c r="AQ144" s="2"/>
+      <c r="AR144" s="2"/>
     </row>
     <row r="145" ht="14.65" customHeight="1">
       <c r="A145" s="10"/>
@@ -8686,6 +8845,7 @@
       <c r="AO145" s="7"/>
       <c r="AP145" s="2"/>
       <c r="AQ145" s="2"/>
+      <c r="AR145" s="2"/>
     </row>
     <row r="146" ht="14.65" customHeight="1">
       <c r="A146" s="10"/>
@@ -8731,6 +8891,7 @@
       <c r="AO146" s="7"/>
       <c r="AP146" s="2"/>
       <c r="AQ146" s="2"/>
+      <c r="AR146" s="2"/>
     </row>
     <row r="147" ht="14.65" customHeight="1">
       <c r="A147" s="10"/>
@@ -8776,6 +8937,7 @@
       <c r="AO147" s="7"/>
       <c r="AP147" s="2"/>
       <c r="AQ147" s="2"/>
+      <c r="AR147" s="2"/>
     </row>
     <row r="148" ht="14.65" customHeight="1">
       <c r="A148" s="10"/>
@@ -8821,6 +8983,7 @@
       <c r="AO148" s="7"/>
       <c r="AP148" s="2"/>
       <c r="AQ148" s="2"/>
+      <c r="AR148" s="2"/>
     </row>
     <row r="149" ht="14.65" customHeight="1">
       <c r="A149" s="10"/>
@@ -8866,6 +9029,7 @@
       <c r="AO149" s="7"/>
       <c r="AP149" s="2"/>
       <c r="AQ149" s="2"/>
+      <c r="AR149" s="2"/>
     </row>
     <row r="150" ht="14.65" customHeight="1">
       <c r="A150" s="10"/>
@@ -8911,6 +9075,7 @@
       <c r="AO150" s="7"/>
       <c r="AP150" s="2"/>
       <c r="AQ150" s="2"/>
+      <c r="AR150" s="2"/>
     </row>
     <row r="151" ht="14.65" customHeight="1">
       <c r="A151" s="10"/>
@@ -8956,6 +9121,7 @@
       <c r="AO151" s="7"/>
       <c r="AP151" s="2"/>
       <c r="AQ151" s="2"/>
+      <c r="AR151" s="2"/>
     </row>
     <row r="152" ht="14.65" customHeight="1">
       <c r="A152" s="10"/>
@@ -9001,6 +9167,7 @@
       <c r="AO152" s="7"/>
       <c r="AP152" s="2"/>
       <c r="AQ152" s="22"/>
+      <c r="AR152" s="22"/>
     </row>
     <row r="153" ht="14.65" customHeight="1">
       <c r="A153" s="10"/>
@@ -9046,6 +9213,7 @@
       <c r="AO153" s="7"/>
       <c r="AP153" s="2"/>
       <c r="AQ153" s="2"/>
+      <c r="AR153" s="2"/>
     </row>
     <row r="154" ht="14.65" customHeight="1">
       <c r="A154" s="10"/>
@@ -9091,6 +9259,7 @@
       <c r="AO154" s="7"/>
       <c r="AP154" s="2"/>
       <c r="AQ154" s="2"/>
+      <c r="AR154" s="2"/>
     </row>
     <row r="155" ht="14.65" customHeight="1">
       <c r="A155" s="10"/>
@@ -9136,6 +9305,7 @@
       <c r="AO155" s="7"/>
       <c r="AP155" s="2"/>
       <c r="AQ155" s="2"/>
+      <c r="AR155" s="2"/>
     </row>
     <row r="156" ht="14.65" customHeight="1">
       <c r="A156" s="10"/>
@@ -9181,6 +9351,7 @@
       <c r="AO156" s="7"/>
       <c r="AP156" s="2"/>
       <c r="AQ156" s="2"/>
+      <c r="AR156" s="2"/>
     </row>
     <row r="157" ht="14.65" customHeight="1">
       <c r="A157" s="10"/>
@@ -9226,6 +9397,7 @@
       <c r="AO157" s="7"/>
       <c r="AP157" s="2"/>
       <c r="AQ157" s="2"/>
+      <c r="AR157" s="2"/>
     </row>
     <row r="158" ht="14.65" customHeight="1">
       <c r="A158" s="10"/>
@@ -9271,6 +9443,7 @@
       <c r="AO158" s="7"/>
       <c r="AP158" s="2"/>
       <c r="AQ158" s="2"/>
+      <c r="AR158" s="2"/>
     </row>
     <row r="159" ht="14.65" customHeight="1">
       <c r="A159" s="10"/>
@@ -9316,6 +9489,7 @@
       <c r="AO159" s="7"/>
       <c r="AP159" s="2"/>
       <c r="AQ159" s="2"/>
+      <c r="AR159" s="2"/>
     </row>
     <row r="160" ht="14.65" customHeight="1">
       <c r="A160" s="10"/>
@@ -9361,6 +9535,7 @@
       <c r="AO160" s="7"/>
       <c r="AP160" s="2"/>
       <c r="AQ160" s="2"/>
+      <c r="AR160" s="2"/>
     </row>
     <row r="161" ht="14.65" customHeight="1">
       <c r="A161" s="10"/>
@@ -9406,6 +9581,7 @@
       <c r="AO161" s="7"/>
       <c r="AP161" s="2"/>
       <c r="AQ161" s="2"/>
+      <c r="AR161" s="2"/>
     </row>
     <row r="162" ht="14.65" customHeight="1">
       <c r="A162" s="10"/>
@@ -9451,6 +9627,7 @@
       <c r="AO162" s="7"/>
       <c r="AP162" s="2"/>
       <c r="AQ162" s="2"/>
+      <c r="AR162" s="2"/>
     </row>
     <row r="163" ht="14.65" customHeight="1">
       <c r="A163" s="10"/>
@@ -9496,6 +9673,7 @@
       <c r="AO163" s="7"/>
       <c r="AP163" s="2"/>
       <c r="AQ163" s="2"/>
+      <c r="AR163" s="2"/>
     </row>
     <row r="164" ht="14.65" customHeight="1">
       <c r="A164" s="10"/>
@@ -9541,6 +9719,7 @@
       <c r="AO164" s="7"/>
       <c r="AP164" s="2"/>
       <c r="AQ164" s="2"/>
+      <c r="AR164" s="2"/>
     </row>
     <row r="165" ht="14.65" customHeight="1">
       <c r="A165" s="10"/>
@@ -9586,6 +9765,7 @@
       <c r="AO165" s="7"/>
       <c r="AP165" s="2"/>
       <c r="AQ165" s="2"/>
+      <c r="AR165" s="2"/>
     </row>
     <row r="166" ht="14.65" customHeight="1">
       <c r="A166" s="10"/>
@@ -9631,6 +9811,7 @@
       <c r="AO166" s="7"/>
       <c r="AP166" s="2"/>
       <c r="AQ166" s="2"/>
+      <c r="AR166" s="2"/>
     </row>
     <row r="167" ht="14.65" customHeight="1">
       <c r="A167" s="10"/>
@@ -9676,6 +9857,7 @@
       <c r="AO167" s="7"/>
       <c r="AP167" s="2"/>
       <c r="AQ167" s="2"/>
+      <c r="AR167" s="2"/>
     </row>
     <row r="168" ht="14.65" customHeight="1">
       <c r="A168" s="10"/>
@@ -9721,6 +9903,7 @@
       <c r="AO168" s="7"/>
       <c r="AP168" s="2"/>
       <c r="AQ168" s="2"/>
+      <c r="AR168" s="2"/>
     </row>
     <row r="169" ht="14.65" customHeight="1">
       <c r="A169" s="10"/>
@@ -9766,6 +9949,7 @@
       <c r="AO169" s="7"/>
       <c r="AP169" s="2"/>
       <c r="AQ169" s="2"/>
+      <c r="AR169" s="2"/>
     </row>
     <row r="170" ht="14.65" customHeight="1">
       <c r="A170" s="10"/>
@@ -9811,6 +9995,7 @@
       <c r="AO170" s="7"/>
       <c r="AP170" s="2"/>
       <c r="AQ170" s="2"/>
+      <c r="AR170" s="2"/>
     </row>
     <row r="171" ht="14.65" customHeight="1">
       <c r="A171" s="10"/>
@@ -9856,6 +10041,7 @@
       <c r="AO171" s="7"/>
       <c r="AP171" s="2"/>
       <c r="AQ171" s="2"/>
+      <c r="AR171" s="2"/>
     </row>
     <row r="172" ht="14.65" customHeight="1">
       <c r="A172" s="10"/>
@@ -9901,6 +10087,7 @@
       <c r="AO172" s="7"/>
       <c r="AP172" s="2"/>
       <c r="AQ172" s="2"/>
+      <c r="AR172" s="2"/>
     </row>
     <row r="173" ht="14.65" customHeight="1">
       <c r="A173" s="10"/>
@@ -9946,6 +10133,7 @@
       <c r="AO173" s="7"/>
       <c r="AP173" s="2"/>
       <c r="AQ173" s="22"/>
+      <c r="AR173" s="22"/>
     </row>
     <row r="174" ht="14.65" customHeight="1">
       <c r="A174" s="10"/>
@@ -9991,6 +10179,7 @@
       <c r="AO174" s="7"/>
       <c r="AP174" s="2"/>
       <c r="AQ174" s="22"/>
+      <c r="AR174" s="22"/>
     </row>
     <row r="175" ht="14.65" customHeight="1">
       <c r="A175" s="10"/>
@@ -10036,6 +10225,7 @@
       <c r="AO175" s="7"/>
       <c r="AP175" s="2"/>
       <c r="AQ175" s="22"/>
+      <c r="AR175" s="22"/>
     </row>
     <row r="176" ht="14.65" customHeight="1">
       <c r="A176" s="10"/>
@@ -10081,6 +10271,7 @@
       <c r="AO176" s="7"/>
       <c r="AP176" s="2"/>
       <c r="AQ176" s="22"/>
+      <c r="AR176" s="22"/>
     </row>
     <row r="177" ht="14.65" customHeight="1">
       <c r="A177" s="10"/>
@@ -10126,6 +10317,7 @@
       <c r="AO177" s="7"/>
       <c r="AP177" s="2"/>
       <c r="AQ177" s="22"/>
+      <c r="AR177" s="22"/>
     </row>
     <row r="178" ht="14.65" customHeight="1">
       <c r="A178" s="10"/>
@@ -10171,6 +10363,7 @@
       <c r="AO178" s="7"/>
       <c r="AP178" s="2"/>
       <c r="AQ178" s="22"/>
+      <c r="AR178" s="22"/>
     </row>
     <row r="179" ht="14.65" customHeight="1">
       <c r="A179" s="10"/>
@@ -10216,6 +10409,7 @@
       <c r="AO179" s="7"/>
       <c r="AP179" s="2"/>
       <c r="AQ179" s="22"/>
+      <c r="AR179" s="22"/>
     </row>
     <row r="180" ht="14.65" customHeight="1">
       <c r="A180" s="10"/>
@@ -10261,6 +10455,7 @@
       <c r="AO180" s="7"/>
       <c r="AP180" s="2"/>
       <c r="AQ180" s="22"/>
+      <c r="AR180" s="22"/>
     </row>
     <row r="181" ht="14.65" customHeight="1">
       <c r="A181" s="10"/>
@@ -10306,6 +10501,7 @@
       <c r="AO181" s="7"/>
       <c r="AP181" s="2"/>
       <c r="AQ181" s="22"/>
+      <c r="AR181" s="22"/>
     </row>
     <row r="182" ht="14.65" customHeight="1">
       <c r="A182" s="10"/>
@@ -10351,6 +10547,7 @@
       <c r="AO182" s="7"/>
       <c r="AP182" s="2"/>
       <c r="AQ182" s="22"/>
+      <c r="AR182" s="22"/>
     </row>
     <row r="183" ht="14.65" customHeight="1">
       <c r="A183" s="10"/>
@@ -10396,6 +10593,7 @@
       <c r="AO183" s="7"/>
       <c r="AP183" s="2"/>
       <c r="AQ183" s="22"/>
+      <c r="AR183" s="22"/>
     </row>
     <row r="184" ht="14.65" customHeight="1">
       <c r="A184" s="10"/>
@@ -10441,6 +10639,7 @@
       <c r="AO184" s="7"/>
       <c r="AP184" s="2"/>
       <c r="AQ184" s="22"/>
+      <c r="AR184" s="22"/>
     </row>
     <row r="185" ht="14.65" customHeight="1">
       <c r="A185" s="10"/>
@@ -10486,6 +10685,7 @@
       <c r="AO185" s="7"/>
       <c r="AP185" s="2"/>
       <c r="AQ185" s="22"/>
+      <c r="AR185" s="22"/>
     </row>
     <row r="186" ht="14.65" customHeight="1">
       <c r="A186" s="10"/>
@@ -10531,6 +10731,7 @@
       <c r="AO186" s="7"/>
       <c r="AP186" s="2"/>
       <c r="AQ186" s="22"/>
+      <c r="AR186" s="22"/>
     </row>
     <row r="187" ht="14.65" customHeight="1">
       <c r="A187" s="10"/>
@@ -10576,6 +10777,7 @@
       <c r="AO187" s="7"/>
       <c r="AP187" s="2"/>
       <c r="AQ187" s="22"/>
+      <c r="AR187" s="22"/>
     </row>
     <row r="188" ht="14.65" customHeight="1">
       <c r="A188" s="10"/>
@@ -10621,6 +10823,7 @@
       <c r="AO188" s="7"/>
       <c r="AP188" s="2"/>
       <c r="AQ188" s="22"/>
+      <c r="AR188" s="22"/>
     </row>
     <row r="189" ht="14.65" customHeight="1">
       <c r="A189" s="10"/>
@@ -10666,6 +10869,7 @@
       <c r="AO189" s="7"/>
       <c r="AP189" s="2"/>
       <c r="AQ189" s="12"/>
+      <c r="AR189" s="12"/>
     </row>
     <row r="190" ht="14.65" customHeight="1">
       <c r="A190" s="10"/>
@@ -10711,6 +10915,7 @@
       <c r="AO190" s="7"/>
       <c r="AP190" s="2"/>
       <c r="AQ190" s="27"/>
+      <c r="AR190" s="27"/>
     </row>
     <row r="191" ht="14.65" customHeight="1">
       <c r="A191" s="10"/>
@@ -10756,6 +10961,7 @@
       <c r="AO191" s="7"/>
       <c r="AP191" s="2"/>
       <c r="AQ191" s="17"/>
+      <c r="AR191" s="17"/>
     </row>
     <row r="192" ht="14.65" customHeight="1">
       <c r="A192" s="10"/>
@@ -10801,6 +11007,7 @@
       <c r="AO192" s="7"/>
       <c r="AP192" s="2"/>
       <c r="AQ192" s="22"/>
+      <c r="AR192" s="22"/>
     </row>
     <row r="193" ht="14.65" customHeight="1">
       <c r="A193" s="10"/>
@@ -10846,6 +11053,7 @@
       <c r="AO193" s="7"/>
       <c r="AP193" s="2"/>
       <c r="AQ193" s="22"/>
+      <c r="AR193" s="22"/>
     </row>
     <row r="194" ht="14.65" customHeight="1">
       <c r="A194" s="10"/>
@@ -10891,6 +11099,7 @@
       <c r="AO194" s="7"/>
       <c r="AP194" s="2"/>
       <c r="AQ194" s="22"/>
+      <c r="AR194" s="22"/>
     </row>
     <row r="195" ht="14.65" customHeight="1">
       <c r="A195" s="10"/>
@@ -10936,6 +11145,7 @@
       <c r="AO195" s="7"/>
       <c r="AP195" s="2"/>
       <c r="AQ195" s="22"/>
+      <c r="AR195" s="22"/>
     </row>
     <row r="196" ht="14.65" customHeight="1">
       <c r="A196" s="10"/>
@@ -10981,6 +11191,7 @@
       <c r="AO196" s="7"/>
       <c r="AP196" s="2"/>
       <c r="AQ196" s="22"/>
+      <c r="AR196" s="22"/>
     </row>
     <row r="197" ht="14.65" customHeight="1">
       <c r="A197" s="10"/>
@@ -11026,6 +11237,7 @@
       <c r="AO197" s="7"/>
       <c r="AP197" s="2"/>
       <c r="AQ197" s="22"/>
+      <c r="AR197" s="22"/>
     </row>
     <row r="198" ht="14.65" customHeight="1">
       <c r="A198" s="10"/>
@@ -11071,6 +11283,7 @@
       <c r="AO198" s="7"/>
       <c r="AP198" s="2"/>
       <c r="AQ198" s="22"/>
+      <c r="AR198" s="22"/>
     </row>
     <row r="199" ht="14.65" customHeight="1">
       <c r="A199" s="10"/>
@@ -11116,6 +11329,7 @@
       <c r="AO199" s="7"/>
       <c r="AP199" s="2"/>
       <c r="AQ199" s="22"/>
+      <c r="AR199" s="22"/>
     </row>
     <row r="200" ht="14.65" customHeight="1">
       <c r="A200" s="10"/>
@@ -11161,6 +11375,7 @@
       <c r="AO200" s="7"/>
       <c r="AP200" s="2"/>
       <c r="AQ200" s="22"/>
+      <c r="AR200" s="22"/>
     </row>
     <row r="201" ht="14.65" customHeight="1">
       <c r="A201" s="10"/>
@@ -11206,6 +11421,7 @@
       <c r="AO201" s="7"/>
       <c r="AP201" s="2"/>
       <c r="AQ201" s="22"/>
+      <c r="AR201" s="22"/>
     </row>
     <row r="202" ht="14.65" customHeight="1">
       <c r="A202" s="10"/>
@@ -11251,6 +11467,7 @@
       <c r="AO202" s="7"/>
       <c r="AP202" s="2"/>
       <c r="AQ202" s="22"/>
+      <c r="AR202" s="22"/>
     </row>
     <row r="203" ht="14.65" customHeight="1">
       <c r="A203" s="10"/>
@@ -11296,6 +11513,7 @@
       <c r="AO203" s="7"/>
       <c r="AP203" s="2"/>
       <c r="AQ203" s="22"/>
+      <c r="AR203" s="22"/>
     </row>
     <row r="204" ht="14.65" customHeight="1">
       <c r="A204" s="10"/>
@@ -11341,6 +11559,7 @@
       <c r="AO204" s="7"/>
       <c r="AP204" s="2"/>
       <c r="AQ204" s="22"/>
+      <c r="AR204" s="22"/>
     </row>
     <row r="205" ht="14.65" customHeight="1">
       <c r="A205" s="10"/>
@@ -11386,6 +11605,7 @@
       <c r="AO205" s="7"/>
       <c r="AP205" s="2"/>
       <c r="AQ205" s="22"/>
+      <c r="AR205" s="22"/>
     </row>
     <row r="206" ht="14.65" customHeight="1">
       <c r="A206" s="10"/>
@@ -11431,6 +11651,7 @@
       <c r="AO206" s="7"/>
       <c r="AP206" s="2"/>
       <c r="AQ206" s="22"/>
+      <c r="AR206" s="22"/>
     </row>
     <row r="207" ht="14.65" customHeight="1">
       <c r="A207" s="10"/>
@@ -11476,6 +11697,7 @@
       <c r="AO207" s="7"/>
       <c r="AP207" s="2"/>
       <c r="AQ207" s="22"/>
+      <c r="AR207" s="22"/>
     </row>
     <row r="208" ht="14.65" customHeight="1">
       <c r="A208" s="10"/>
@@ -11521,6 +11743,7 @@
       <c r="AO208" s="7"/>
       <c r="AP208" s="2"/>
       <c r="AQ208" s="22"/>
+      <c r="AR208" s="22"/>
     </row>
     <row r="209" ht="14.65" customHeight="1">
       <c r="A209" s="10"/>
@@ -11566,6 +11789,7 @@
       <c r="AO209" s="7"/>
       <c r="AP209" s="2"/>
       <c r="AQ209" s="22"/>
+      <c r="AR209" s="22"/>
     </row>
     <row r="210" ht="14.65" customHeight="1">
       <c r="A210" s="10"/>
@@ -11611,6 +11835,7 @@
       <c r="AO210" s="7"/>
       <c r="AP210" s="2"/>
       <c r="AQ210" s="22"/>
+      <c r="AR210" s="22"/>
     </row>
     <row r="211" ht="14.65" customHeight="1">
       <c r="A211" s="10"/>
@@ -11656,6 +11881,7 @@
       <c r="AO211" s="7"/>
       <c r="AP211" s="2"/>
       <c r="AQ211" s="22"/>
+      <c r="AR211" s="22"/>
     </row>
     <row r="212" ht="14.65" customHeight="1">
       <c r="A212" s="10"/>
@@ -11701,6 +11927,7 @@
       <c r="AO212" s="7"/>
       <c r="AP212" s="2"/>
       <c r="AQ212" s="22"/>
+      <c r="AR212" s="22"/>
     </row>
     <row r="213" ht="14.65" customHeight="1">
       <c r="A213" s="10"/>
@@ -11746,6 +11973,7 @@
       <c r="AO213" s="7"/>
       <c r="AP213" s="2"/>
       <c r="AQ213" s="22"/>
+      <c r="AR213" s="22"/>
     </row>
     <row r="214" ht="14.65" customHeight="1">
       <c r="A214" s="10"/>
@@ -11791,6 +12019,7 @@
       <c r="AO214" s="7"/>
       <c r="AP214" s="2"/>
       <c r="AQ214" s="22"/>
+      <c r="AR214" s="22"/>
     </row>
     <row r="215" ht="14.65" customHeight="1">
       <c r="A215" s="10"/>
@@ -11836,6 +12065,7 @@
       <c r="AO215" s="7"/>
       <c r="AP215" s="2"/>
       <c r="AQ215" s="22"/>
+      <c r="AR215" s="22"/>
     </row>
     <row r="216" ht="14.65" customHeight="1">
       <c r="A216" s="10"/>
@@ -11881,6 +12111,7 @@
       <c r="AO216" s="7"/>
       <c r="AP216" s="2"/>
       <c r="AQ216" s="22"/>
+      <c r="AR216" s="22"/>
     </row>
     <row r="217" ht="14.65" customHeight="1">
       <c r="A217" s="10"/>
@@ -11926,6 +12157,7 @@
       <c r="AO217" s="7"/>
       <c r="AP217" s="2"/>
       <c r="AQ217" s="22"/>
+      <c r="AR217" s="22"/>
     </row>
     <row r="218" ht="14.65" customHeight="1">
       <c r="A218" s="10"/>
@@ -11971,6 +12203,7 @@
       <c r="AO218" s="7"/>
       <c r="AP218" s="2"/>
       <c r="AQ218" s="22"/>
+      <c r="AR218" s="22"/>
     </row>
     <row r="219" ht="14.65" customHeight="1">
       <c r="A219" s="10"/>
@@ -12016,6 +12249,7 @@
       <c r="AO219" s="7"/>
       <c r="AP219" s="2"/>
       <c r="AQ219" s="22"/>
+      <c r="AR219" s="22"/>
     </row>
     <row r="220" ht="14.65" customHeight="1">
       <c r="A220" s="10"/>
@@ -12061,6 +12295,7 @@
       <c r="AO220" s="7"/>
       <c r="AP220" s="2"/>
       <c r="AQ220" s="22"/>
+      <c r="AR220" s="22"/>
     </row>
     <row r="221" ht="14.65" customHeight="1">
       <c r="A221" s="10"/>
@@ -12106,6 +12341,7 @@
       <c r="AO221" s="7"/>
       <c r="AP221" s="2"/>
       <c r="AQ221" s="22"/>
+      <c r="AR221" s="22"/>
     </row>
     <row r="222" ht="14.65" customHeight="1">
       <c r="A222" s="7"/>
@@ -12151,6 +12387,7 @@
       <c r="AO222" s="7"/>
       <c r="AP222" s="7"/>
       <c r="AQ222" s="8"/>
+      <c r="AR222" s="8"/>
     </row>
     <row r="223" ht="14.65" customHeight="1">
       <c r="A223" s="7"/>
@@ -12196,6 +12433,7 @@
       <c r="AO223" s="7"/>
       <c r="AP223" s="7"/>
       <c r="AQ223" s="8"/>
+      <c r="AR223" s="8"/>
     </row>
     <row r="224" ht="14.65" customHeight="1">
       <c r="A224" s="7"/>
@@ -12241,6 +12479,7 @@
       <c r="AO224" s="7"/>
       <c r="AP224" s="7"/>
       <c r="AQ224" s="8"/>
+      <c r="AR224" s="8"/>
     </row>
     <row r="225" ht="14.65" customHeight="1">
       <c r="A225" s="7"/>
@@ -12286,6 +12525,7 @@
       <c r="AO225" s="7"/>
       <c r="AP225" s="7"/>
       <c r="AQ225" s="8"/>
+      <c r="AR225" s="8"/>
     </row>
     <row r="226" ht="14.65" customHeight="1">
       <c r="A226" s="7"/>
@@ -12331,6 +12571,7 @@
       <c r="AO226" s="7"/>
       <c r="AP226" s="7"/>
       <c r="AQ226" s="8"/>
+      <c r="AR226" s="8"/>
     </row>
     <row r="227" ht="14.65" customHeight="1">
       <c r="A227" s="7"/>
@@ -12376,6 +12617,7 @@
       <c r="AO227" s="7"/>
       <c r="AP227" s="7"/>
       <c r="AQ227" s="8"/>
+      <c r="AR227" s="8"/>
     </row>
     <row r="228" ht="14.65" customHeight="1">
       <c r="A228" s="7"/>
@@ -12421,6 +12663,7 @@
       <c r="AO228" s="7"/>
       <c r="AP228" s="7"/>
       <c r="AQ228" s="8"/>
+      <c r="AR228" s="8"/>
     </row>
     <row r="229" ht="14.65" customHeight="1">
       <c r="A229" s="7"/>
@@ -12466,6 +12709,7 @@
       <c r="AO229" s="7"/>
       <c r="AP229" s="7"/>
       <c r="AQ229" s="8"/>
+      <c r="AR229" s="8"/>
     </row>
     <row r="230" ht="14.65" customHeight="1">
       <c r="A230" s="7"/>
@@ -12511,6 +12755,7 @@
       <c r="AO230" s="7"/>
       <c r="AP230" s="7"/>
       <c r="AQ230" s="8"/>
+      <c r="AR230" s="8"/>
     </row>
     <row r="231" ht="14.65" customHeight="1">
       <c r="A231" s="7"/>
@@ -12556,6 +12801,7 @@
       <c r="AO231" s="7"/>
       <c r="AP231" s="7"/>
       <c r="AQ231" s="8"/>
+      <c r="AR231" s="8"/>
     </row>
     <row r="232" ht="14.65" customHeight="1">
       <c r="A232" s="7"/>
@@ -12601,6 +12847,7 @@
       <c r="AO232" s="7"/>
       <c r="AP232" s="7"/>
       <c r="AQ232" s="8"/>
+      <c r="AR232" s="8"/>
     </row>
     <row r="233" ht="14.65" customHeight="1">
       <c r="A233" s="7"/>
@@ -12646,6 +12893,7 @@
       <c r="AO233" s="7"/>
       <c r="AP233" s="7"/>
       <c r="AQ233" s="8"/>
+      <c r="AR233" s="8"/>
     </row>
     <row r="234" ht="14.65" customHeight="1">
       <c r="A234" s="7"/>
@@ -12691,6 +12939,7 @@
       <c r="AO234" s="7"/>
       <c r="AP234" s="7"/>
       <c r="AQ234" s="8"/>
+      <c r="AR234" s="8"/>
     </row>
     <row r="235" ht="14.65" customHeight="1">
       <c r="A235" s="7"/>
@@ -12736,6 +12985,7 @@
       <c r="AO235" s="7"/>
       <c r="AP235" s="7"/>
       <c r="AQ235" s="8"/>
+      <c r="AR235" s="8"/>
     </row>
     <row r="236" ht="14.65" customHeight="1">
       <c r="A236" s="7"/>
@@ -12781,6 +13031,7 @@
       <c r="AO236" s="7"/>
       <c r="AP236" s="7"/>
       <c r="AQ236" s="8"/>
+      <c r="AR236" s="8"/>
     </row>
     <row r="237" ht="14.65" customHeight="1">
       <c r="A237" s="7"/>
@@ -12826,6 +13077,7 @@
       <c r="AO237" s="7"/>
       <c r="AP237" s="7"/>
       <c r="AQ237" s="8"/>
+      <c r="AR237" s="8"/>
     </row>
     <row r="238" ht="14.65" customHeight="1">
       <c r="A238" s="7"/>
@@ -12871,6 +13123,7 @@
       <c r="AO238" s="7"/>
       <c r="AP238" s="7"/>
       <c r="AQ238" s="8"/>
+      <c r="AR238" s="8"/>
     </row>
     <row r="239" ht="14.65" customHeight="1">
       <c r="A239" s="7"/>
@@ -12916,6 +13169,7 @@
       <c r="AO239" s="7"/>
       <c r="AP239" s="7"/>
       <c r="AQ239" s="8"/>
+      <c r="AR239" s="8"/>
     </row>
     <row r="240" ht="14.65" customHeight="1">
       <c r="A240" s="7"/>
@@ -12961,6 +13215,7 @@
       <c r="AO240" s="7"/>
       <c r="AP240" s="7"/>
       <c r="AQ240" s="8"/>
+      <c r="AR240" s="8"/>
     </row>
     <row r="241" ht="14.65" customHeight="1">
       <c r="A241" s="7"/>
@@ -13006,6 +13261,7 @@
       <c r="AO241" s="7"/>
       <c r="AP241" s="7"/>
       <c r="AQ241" s="8"/>
+      <c r="AR241" s="8"/>
     </row>
     <row r="242" ht="14.65" customHeight="1">
       <c r="A242" s="7"/>
@@ -13051,6 +13307,7 @@
       <c r="AO242" s="7"/>
       <c r="AP242" s="7"/>
       <c r="AQ242" s="8"/>
+      <c r="AR242" s="8"/>
     </row>
     <row r="243" ht="14.65" customHeight="1">
       <c r="A243" s="7"/>
@@ -13096,6 +13353,7 @@
       <c r="AO243" s="7"/>
       <c r="AP243" s="7"/>
       <c r="AQ243" s="8"/>
+      <c r="AR243" s="8"/>
     </row>
     <row r="244" ht="14.65" customHeight="1">
       <c r="A244" s="7"/>
@@ -13141,6 +13399,7 @@
       <c r="AO244" s="7"/>
       <c r="AP244" s="7"/>
       <c r="AQ244" s="8"/>
+      <c r="AR244" s="8"/>
     </row>
     <row r="245" ht="14.65" customHeight="1">
       <c r="A245" s="7"/>
@@ -13186,6 +13445,7 @@
       <c r="AO245" s="7"/>
       <c r="AP245" s="7"/>
       <c r="AQ245" s="8"/>
+      <c r="AR245" s="8"/>
     </row>
     <row r="246" ht="14.65" customHeight="1">
       <c r="A246" s="7"/>
@@ -13231,6 +13491,7 @@
       <c r="AO246" s="7"/>
       <c r="AP246" s="7"/>
       <c r="AQ246" s="8"/>
+      <c r="AR246" s="8"/>
     </row>
     <row r="247" ht="14.65" customHeight="1">
       <c r="A247" s="7"/>
@@ -13276,6 +13537,7 @@
       <c r="AO247" s="7"/>
       <c r="AP247" s="7"/>
       <c r="AQ247" s="8"/>
+      <c r="AR247" s="8"/>
     </row>
     <row r="248" ht="14.65" customHeight="1">
       <c r="A248" s="7"/>
@@ -13321,6 +13583,7 @@
       <c r="AO248" s="7"/>
       <c r="AP248" s="7"/>
       <c r="AQ248" s="8"/>
+      <c r="AR248" s="8"/>
     </row>
     <row r="249" ht="14.65" customHeight="1">
       <c r="A249" s="7"/>
@@ -13366,6 +13629,7 @@
       <c r="AO249" s="7"/>
       <c r="AP249" s="7"/>
       <c r="AQ249" s="8"/>
+      <c r="AR249" s="8"/>
     </row>
     <row r="250" ht="14.65" customHeight="1">
       <c r="A250" s="7"/>
@@ -13411,6 +13675,7 @@
       <c r="AO250" s="7"/>
       <c r="AP250" s="7"/>
       <c r="AQ250" s="8"/>
+      <c r="AR250" s="8"/>
     </row>
     <row r="251" ht="14.65" customHeight="1">
       <c r="A251" s="7"/>
@@ -13456,6 +13721,7 @@
       <c r="AO251" s="7"/>
       <c r="AP251" s="7"/>
       <c r="AQ251" s="8"/>
+      <c r="AR251" s="8"/>
     </row>
     <row r="252" ht="14.65" customHeight="1">
       <c r="A252" s="7"/>
@@ -13501,6 +13767,7 @@
       <c r="AO252" s="7"/>
       <c r="AP252" s="7"/>
       <c r="AQ252" s="8"/>
+      <c r="AR252" s="8"/>
     </row>
     <row r="253" ht="14.65" customHeight="1">
       <c r="A253" s="7"/>
@@ -13546,6 +13813,7 @@
       <c r="AO253" s="7"/>
       <c r="AP253" s="7"/>
       <c r="AQ253" s="8"/>
+      <c r="AR253" s="8"/>
     </row>
     <row r="254" ht="14.65" customHeight="1">
       <c r="A254" s="7"/>
@@ -13591,6 +13859,7 @@
       <c r="AO254" s="7"/>
       <c r="AP254" s="7"/>
       <c r="AQ254" s="8"/>
+      <c r="AR254" s="8"/>
     </row>
     <row r="255" ht="14.65" customHeight="1">
       <c r="A255" s="7"/>
@@ -13636,6 +13905,7 @@
       <c r="AO255" s="7"/>
       <c r="AP255" s="7"/>
       <c r="AQ255" s="8"/>
+      <c r="AR255" s="8"/>
     </row>
     <row r="256" ht="14.65" customHeight="1">
       <c r="A256" s="7"/>
@@ -13681,6 +13951,7 @@
       <c r="AO256" s="7"/>
       <c r="AP256" s="7"/>
       <c r="AQ256" s="8"/>
+      <c r="AR256" s="8"/>
     </row>
     <row r="257" ht="14.65" customHeight="1">
       <c r="A257" s="7"/>
@@ -13726,6 +13997,7 @@
       <c r="AO257" s="7"/>
       <c r="AP257" s="7"/>
       <c r="AQ257" s="8"/>
+      <c r="AR257" s="8"/>
     </row>
     <row r="258" ht="14.65" customHeight="1">
       <c r="A258" s="7"/>
@@ -13771,6 +14043,7 @@
       <c r="AO258" s="7"/>
       <c r="AP258" s="7"/>
       <c r="AQ258" s="8"/>
+      <c r="AR258" s="8"/>
     </row>
     <row r="259" ht="14.65" customHeight="1">
       <c r="A259" s="7"/>
@@ -13816,6 +14089,7 @@
       <c r="AO259" s="7"/>
       <c r="AP259" s="7"/>
       <c r="AQ259" s="8"/>
+      <c r="AR259" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
